--- a/SW_DOC/01_Inear/20220512_qcc_features_check.xlsx
+++ b/SW_DOC/01_Inear/20220512_qcc_features_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSI_Projects\Allears_med\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8FA625-BBBC-4521-9AD2-212F037FC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C3A5C-39A4-4E29-AE4D-4804632F07CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FAC29BD-D114-470B-9DA9-D5CDF9D37AA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FAC29BD-D114-470B-9DA9-D5CDF9D37AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>FORCE_LED_FLASHES</t>
   </si>
   <si>
-    <t>GOAL_ID_ENUM_NAME=tws_topology_goal_id</t>
-  </si>
-  <si>
     <t>HAVE_1_LED</t>
   </si>
   <si>
@@ -292,6 +289,10 @@
   </si>
   <si>
     <t>* 개발 마지막 단계에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOAL_ID_ENUM_NAME=tws_topology_goal_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +344,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -404,10 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,17 +727,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -776,7 +771,7 @@
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -787,12 +782,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,10 +838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383D6B75-9FBB-444C-A58B-EAFFB2212DBD}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:I58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -865,7 +860,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -1038,8 +1033,8 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="8" t="s">
-        <v>77</v>
+      <c r="J14" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1054,8 +1049,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="8" t="s">
-        <v>77</v>
+      <c r="J15" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1099,7 +1094,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1112,7 +1107,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1125,7 +1120,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1137,23 +1132,23 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1166,7 +1161,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1179,7 +1174,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1192,7 +1187,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1205,7 +1200,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1218,7 +1213,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1231,7 +1226,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1244,7 +1239,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1257,7 +1252,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1268,7 +1263,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M31">
         <v>20220523</v>
@@ -1276,7 +1271,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1287,12 +1282,12 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1305,7 +1300,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1317,23 +1312,23 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="A35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1346,7 +1341,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1359,7 +1354,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1372,7 +1367,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1385,7 +1380,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1398,7 +1393,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1411,7 +1406,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1419,12 +1414,12 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M42" s="3">
         <v>20220523</v>
@@ -1432,7 +1427,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1445,7 +1440,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1458,7 +1453,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1471,7 +1466,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1484,7 +1479,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1497,7 +1492,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1508,9 +1503,9 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1521,9 +1516,9 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1534,9 +1529,9 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1547,9 +1542,9 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1560,9 +1555,9 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1573,9 +1568,9 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1586,22 +1581,23 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1609,39 +1605,51 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M56" s="3">
+        <v>73</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8">
         <v>20220523</v>
       </c>
-      <c r="O56">
+      <c r="N56" s="8"/>
+      <c r="O56" s="8">
         <v>20220524</v>
       </c>
-      <c r="P56" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1652,9 +1660,9 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1665,9 +1673,9 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1678,9 +1686,9 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1691,9 +1699,9 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1704,9 +1712,9 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1717,9 +1725,9 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1732,7 +1740,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1745,7 +1753,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1758,68 +1766,52 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -1844,52 +1836,68 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
